--- a/SCHOOL NAME  & NO. OF FORM.xlsx
+++ b/SCHOOL NAME  & NO. OF FORM.xlsx
@@ -2799,7 +2799,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3244,7 +3244,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:13">
       <c r="A17" s="45" t="s">
         <v>695</v>
       </c>
@@ -3258,8 +3258,11 @@
       <c r="G17" s="60"/>
       <c r="H17" s="60"/>
       <c r="I17" s="57"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="M17">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="4" t="s">
         <v>375</v>
       </c>
@@ -3274,7 +3277,7 @@
       <c r="H18" s="60"/>
       <c r="I18" s="57"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:13">
       <c r="A19" s="27" t="s">
         <v>376</v>
       </c>
@@ -3283,7 +3286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:13">
       <c r="I21" s="35"/>
     </row>
   </sheetData>
